--- a/data/trans_dic/P21D_2_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P21D_2_R-Dificultad-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.08406535295729262</v>
+        <v>0.08406535295729264</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.05493840780292459</v>
+        <v>0.0549384078029246</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.06726755800637217</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05186688554124232</v>
+        <v>0.04921813015416399</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03434160593877195</v>
+        <v>0.03443533006560744</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0482850594303923</v>
+        <v>0.04692784934806915</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1318358906133199</v>
+        <v>0.1337793127988482</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08760861904281088</v>
+        <v>0.08791169260442401</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09343093565594639</v>
+        <v>0.09355221676925347</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.03170006024915495</v>
+        <v>0.03170006024915496</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.03640739884525093</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01622415931129956</v>
+        <v>0.01631313686288743</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02229217042218238</v>
+        <v>0.02228853437816735</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02381904044139173</v>
+        <v>0.02371072495532077</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05642887642919178</v>
+        <v>0.05904413355471397</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05569983621045465</v>
+        <v>0.05829726267723642</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04912838361742485</v>
+        <v>0.04869337365013362</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.003578328203501348</v>
+        <v>0.003779379100980166</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.00572787492313425</v>
+        <v>0.005832279916630269</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.006439367566864691</v>
+        <v>0.006706787606555683</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02323414706605159</v>
+        <v>0.02476740967051545</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0245727431923815</v>
+        <v>0.02609131082453791</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02083308930998797</v>
+        <v>0.01987408815114204</v>
       </c>
     </row>
     <row r="13">
@@ -747,10 +747,10 @@
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="n">
-        <v>0</v>
+        <v>0.001352096520532026</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0006560268953026339</v>
+        <v>0.0006493061386153134</v>
       </c>
     </row>
     <row r="15">
@@ -762,10 +762,10 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.01146002015741235</v>
+        <v>0.01130005334603953</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.005459071297189616</v>
+        <v>0.005345252542441958</v>
       </c>
     </row>
     <row r="16">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01510985486022865</v>
+        <v>0.01485565977340454</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01790332116114361</v>
+        <v>0.01758529428206348</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01837597517844753</v>
+        <v>0.01855093183177878</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02983100890084888</v>
+        <v>0.03124750601564832</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03211168359636721</v>
+        <v>0.03061505397208827</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02859356059240304</v>
+        <v>0.02834386118199674</v>
       </c>
     </row>
     <row r="19">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10243</v>
+        <v>9720</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9241</v>
+        <v>9266</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>22528</v>
+        <v>21895</v>
       </c>
     </row>
     <row r="7">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>26037</v>
+        <v>26421</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>23573</v>
+        <v>23655</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>43592</v>
+        <v>43649</v>
       </c>
     </row>
     <row r="8">
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6427</v>
+        <v>6462</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10686</v>
+        <v>10684</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>20853</v>
+        <v>20758</v>
       </c>
     </row>
     <row r="11">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>22352</v>
+        <v>23388</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>26700</v>
+        <v>27945</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>43010</v>
+        <v>42629</v>
       </c>
     </row>
     <row r="12">
@@ -1106,13 +1106,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1460</v>
+        <v>1542</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2492</v>
+        <v>2537</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5428</v>
+        <v>5654</v>
       </c>
     </row>
     <row r="15">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9480</v>
+        <v>10105</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10689</v>
+        <v>11350</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>17562</v>
+        <v>16754</v>
       </c>
     </row>
     <row r="16">
@@ -1179,10 +1179,10 @@
       </c>
       <c r="C18" s="6" t="inlineStr"/>
       <c r="D18" s="6" t="n">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>686</v>
+        <v>679</v>
       </c>
     </row>
     <row r="19">
@@ -1194,10 +1194,10 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>5695</v>
+        <v>5615</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5712</v>
+        <v>5593</v>
       </c>
     </row>
     <row r="20">
@@ -1246,13 +1246,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>23434</v>
+        <v>23040</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>30084</v>
+        <v>29550</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>59378</v>
+        <v>59944</v>
       </c>
     </row>
     <row r="23">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>46266</v>
+        <v>48463</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>53959</v>
+        <v>51444</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>92394</v>
+        <v>91587</v>
       </c>
     </row>
     <row r="24">
